--- a/TABLES/Table_ Mapping.xlsx
+++ b/TABLES/Table_ Mapping.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
-    <t xml:space="preserve">Table_Name</t>
+    <t xml:space="preserve">table_Name</t>
   </si>
   <si>
     <t xml:space="preserve">script_name</t>
@@ -232,12 +232,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -309,8 +309,8 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
